--- a/biology/Biologie cellulaire et moléculaire/Membrane_nucléaire/Membrane_nucléaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Membrane_nucléaire/Membrane_nucléaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Membrane_nucl%C3%A9aire</t>
+          <t>Membrane_nucléaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'enveloppe nucléaire, ou membrane nucléaire, est une double membrane biologique délimitant les contours du noyau qui contient l'ADN de la cellule eucaryote.
 Elle est pourvue de nombreux pores permettant le contrôle des échanges entre le cytoplasme et le nucléoplasme, en particulier les ARN messagers. 
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Membrane_nucl%C3%A9aire</t>
+          <t>Membrane_nucléaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,10 +529,12 @@
           <t>Cycle de la membrane nucléaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La membrane nucléaire disparaît lors de la mitose pour permettre la migrations des chromosomes et leur répartition entre les deux cellules filles. À la fin de la mitose, l'enveloppe nucléaire se reforme dans chacune des cellules.
-Lors de la prométaphase, les lamines A et C (situé sur la face interne de la membrane nucléaire) sont phosphorylés[1]. La phosphorylations des lamines les rend instables du fait des répulsion entre les phosphates, ce qui provoque leur destructuration. Les lamines phosphorylées se retrouvent alors en suspension dans le cytosol. La membrane nucléaire est quant à elle disloquée en petit saccule en suspension dans le cytoplame.
+Lors de la prométaphase, les lamines A et C (situé sur la face interne de la membrane nucléaire) sont phosphorylés. La phosphorylations des lamines les rend instables du fait des répulsion entre les phosphates, ce qui provoque leur destructuration. Les lamines phosphorylées se retrouvent alors en suspension dans le cytosol. La membrane nucléaire est quant à elle disloquée en petit saccule en suspension dans le cytoplame.
 Lors de la télophase, des saccules issues du réticulum endoplasmique viennent au contact de la chromatine en cours de décondensation, puis fusionnent entre eux pour reformer la membrane nucléaire. Les lamines sont aussi déphosphorylé et reprennent leur position initiale.
 Ce cycle illustre bien le fait que l'espace périnucléaire soit en continuité avec la lumière du réticulum endoplasmique.
 </t>
